--- a/动词.xlsx
+++ b/动词.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>ます形</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,294 @@
   </si>
   <si>
     <t>泳げます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消（け）します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消せます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貸（か）します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貸せます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出（だ）します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出せます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話（はな）します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話せますか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待（ま）ちます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待てます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立てます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立（た）ちます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊（あそ）びます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊べます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼（よ）びます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼べます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休（やす）みます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休めます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲（の）みます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲めます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よめます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読（よ）みます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰（かえ）ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰れます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送（おく）ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送れます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入（はい）ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入れます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>売（う）ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>売れます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作（つく）ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作れます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗（の）ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗れます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入（はい）れます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入れます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座（すわ）ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座れます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗り換えられます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗（の）り換（か）えます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教（おし）えます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教えられます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かけます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かけられます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開（あ）けます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開けられます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見（み）せます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見せられます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食（た）べます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食べられます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止（と）めます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止められます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起（お）きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起きられます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴（あ）びます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴びられます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見（み）ます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見られます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借（か）ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借りられます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来（き）ます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来（こ）られます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>できます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勉強します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勉強できます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買い物します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買い物できます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食事します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食事できます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下（お）ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下りられます</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -593,6 +881,294 @@
         <v>23</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
